--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ua\Documents\Web0\Vlava - API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5272322A-161B-4190-9D09-7AFE6D61880D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECA2E40-6C3C-4A5A-8CD2-6DB0A4A94DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>title</t>
   </si>
@@ -51,36 +51,6 @@
     <t>Service 6</t>
   </si>
   <si>
-    <t>Service 7</t>
-  </si>
-  <si>
-    <t>Service 8</t>
-  </si>
-  <si>
-    <t>Service 9</t>
-  </si>
-  <si>
-    <t>Service 10</t>
-  </si>
-  <si>
-    <t>Service 11</t>
-  </si>
-  <si>
-    <t>Service 12</t>
-  </si>
-  <si>
-    <t>Service 13</t>
-  </si>
-  <si>
-    <t>Service 14</t>
-  </si>
-  <si>
-    <t>Service 15</t>
-  </si>
-  <si>
-    <t>Service 16</t>
-  </si>
-  <si>
     <t>Description 1</t>
   </si>
   <si>
@@ -97,36 +67,6 @@
   </si>
   <si>
     <t>Description 6</t>
-  </si>
-  <si>
-    <t>Description 7</t>
-  </si>
-  <si>
-    <t>Description 8</t>
-  </si>
-  <si>
-    <t>Description 9</t>
-  </si>
-  <si>
-    <t>Description 10</t>
-  </si>
-  <si>
-    <t>Description 11</t>
-  </si>
-  <si>
-    <t>Description 12</t>
-  </si>
-  <si>
-    <t>Description 13</t>
-  </si>
-  <si>
-    <t>Description 14</t>
-  </si>
-  <si>
-    <t>Description 15</t>
-  </si>
-  <si>
-    <t>Description 16</t>
   </si>
 </sst>
 </file>
@@ -473,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -505,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -513,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -521,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -529,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -537,87 +477,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
